--- a/PI_all.xlsx
+++ b/PI_all.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tristin McHugh\Documents\Github\McHugh-et-al\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07804659-CC69-4E23-84E9-093431FF7DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0242BB61-EEF3-4BC7-97DE-BFD5837B9DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="585" windowWidth="17010" windowHeight="9240" xr2:uid="{13F64A27-2AF2-C647-87D2-E1E98C450C51}"/>
+    <workbookView xWindow="110" yWindow="120" windowWidth="16400" windowHeight="9240" xr2:uid="{13F64A27-2AF2-C647-87D2-E1E98C450C51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$961</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="29">
   <si>
     <t>PAR</t>
   </si>
@@ -113,49 +116,12 @@
   <si>
     <t>Callophyllis flabelluata</t>
   </si>
-  <si>
-    <t>Plocamium cartilagineum</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prionitis linearis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Plocamium cartilagineum </t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,13 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -230,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -241,7 +200,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,16 +514,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C231AEC0-29B8-7C44-94BE-EF88D31DABDC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B965" sqref="B965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.4140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10.75" style="6" bestFit="1" customWidth="1"/>
@@ -601,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -630,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -659,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -688,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>8</v>
       </c>
@@ -717,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>30</v>
       </c>
@@ -746,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>40</v>
       </c>
@@ -775,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>62</v>
       </c>
@@ -804,7 +763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>116</v>
       </c>
@@ -833,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>0</v>
       </c>
@@ -862,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -891,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -920,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -949,7 +908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>30</v>
       </c>
@@ -978,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>40</v>
       </c>
@@ -1007,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>62</v>
       </c>
@@ -1036,7 +995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>116</v>
       </c>
@@ -1065,7 +1024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>0</v>
       </c>
@@ -1094,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -1123,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -1152,7 +1111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>8</v>
       </c>
@@ -1181,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>30</v>
       </c>
@@ -1210,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>40</v>
       </c>
@@ -1239,7 +1198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>62</v>
       </c>
@@ -1268,7 +1227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>116</v>
       </c>
@@ -1297,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>0</v>
       </c>
@@ -1326,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>2</v>
       </c>
@@ -1355,7 +1314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>3</v>
       </c>
@@ -1384,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>8</v>
       </c>
@@ -1413,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -1442,7 +1401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>40</v>
       </c>
@@ -1471,7 +1430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>62</v>
       </c>
@@ -1500,7 +1459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>116</v>
       </c>
@@ -1529,7 +1488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>0</v>
       </c>
@@ -1558,7 +1517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>2</v>
       </c>
@@ -1587,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>3</v>
       </c>
@@ -1616,7 +1575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>8</v>
       </c>
@@ -1645,7 +1604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>30</v>
       </c>
@@ -1674,7 +1633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>40</v>
       </c>
@@ -1703,7 +1662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>62</v>
       </c>
@@ -1732,7 +1691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>116</v>
       </c>
@@ -1761,7 +1720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>0</v>
       </c>
@@ -1790,7 +1749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>2</v>
       </c>
@@ -1819,7 +1778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>3</v>
       </c>
@@ -1848,7 +1807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>8</v>
       </c>
@@ -1877,7 +1836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>30</v>
       </c>
@@ -1906,7 +1865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>40</v>
       </c>
@@ -1935,7 +1894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>62</v>
       </c>
@@ -1964,7 +1923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>116</v>
       </c>
@@ -1993,7 +1952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>0</v>
       </c>
@@ -2022,7 +1981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>2</v>
       </c>
@@ -2051,7 +2010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>3</v>
       </c>
@@ -2080,7 +2039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>8</v>
       </c>
@@ -2109,7 +2068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>30</v>
       </c>
@@ -2138,7 +2097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>40</v>
       </c>
@@ -2167,7 +2126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>62</v>
       </c>
@@ -2196,7 +2155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>116</v>
       </c>
@@ -2225,7 +2184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>0</v>
       </c>
@@ -2254,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>2</v>
       </c>
@@ -2283,7 +2242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>3</v>
       </c>
@@ -2312,7 +2271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>8</v>
       </c>
@@ -2341,7 +2300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>30</v>
       </c>
@@ -2370,7 +2329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>40</v>
       </c>
@@ -2399,7 +2358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -2428,7 +2387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>116</v>
       </c>
@@ -2457,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>0</v>
       </c>
@@ -2486,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>2</v>
       </c>
@@ -2515,7 +2474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>3</v>
       </c>
@@ -2544,7 +2503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>8</v>
       </c>
@@ -2573,7 +2532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>30</v>
       </c>
@@ -2602,7 +2561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>40</v>
       </c>
@@ -2631,7 +2590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>62</v>
       </c>
@@ -2660,7 +2619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>116</v>
       </c>
@@ -2689,7 +2648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>0</v>
       </c>
@@ -2718,7 +2677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>2</v>
       </c>
@@ -2747,7 +2706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>3</v>
       </c>
@@ -2776,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>8</v>
       </c>
@@ -2805,7 +2764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>30</v>
       </c>
@@ -2834,7 +2793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>40</v>
       </c>
@@ -2863,7 +2822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>62</v>
       </c>
@@ -2892,7 +2851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>116</v>
       </c>
@@ -2921,7 +2880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>0</v>
       </c>
@@ -2950,7 +2909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>2</v>
       </c>
@@ -2979,7 +2938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>3</v>
       </c>
@@ -3008,7 +2967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>8</v>
       </c>
@@ -3037,7 +2996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>30</v>
       </c>
@@ -3066,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>40</v>
       </c>
@@ -3095,7 +3054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>62</v>
       </c>
@@ -3124,7 +3083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>116</v>
       </c>
@@ -3153,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>0</v>
       </c>
@@ -3182,7 +3141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>2</v>
       </c>
@@ -3211,7 +3170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>3</v>
       </c>
@@ -3240,7 +3199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>8</v>
       </c>
@@ -3269,7 +3228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>30</v>
       </c>
@@ -3298,7 +3257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>40</v>
       </c>
@@ -3327,7 +3286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>62</v>
       </c>
@@ -3356,7 +3315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>116</v>
       </c>
@@ -3385,7 +3344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>0</v>
       </c>
@@ -3414,7 +3373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>2</v>
       </c>
@@ -3443,7 +3402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>3</v>
       </c>
@@ -3472,7 +3431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>8</v>
       </c>
@@ -3501,7 +3460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>30</v>
       </c>
@@ -3530,7 +3489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>40</v>
       </c>
@@ -3559,7 +3518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>62</v>
       </c>
@@ -3588,7 +3547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>116</v>
       </c>
@@ -3617,7 +3576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>0</v>
       </c>
@@ -3646,7 +3605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>2</v>
       </c>
@@ -3675,7 +3634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>3</v>
       </c>
@@ -3704,7 +3663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>8</v>
       </c>
@@ -3733,7 +3692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>30</v>
       </c>
@@ -3762,7 +3721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>40</v>
       </c>
@@ -3791,7 +3750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>62</v>
       </c>
@@ -3820,7 +3779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>116</v>
       </c>
@@ -3849,7 +3808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>0</v>
       </c>
@@ -3878,7 +3837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>2</v>
       </c>
@@ -3907,7 +3866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>3</v>
       </c>
@@ -3936,7 +3895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>8</v>
       </c>
@@ -3965,7 +3924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>30</v>
       </c>
@@ -3994,7 +3953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>40</v>
       </c>
@@ -4023,7 +3982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>62</v>
       </c>
@@ -4052,7 +4011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>116</v>
       </c>
@@ -4081,7 +4040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>0</v>
       </c>
@@ -4110,7 +4069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>2</v>
       </c>
@@ -4139,7 +4098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>3</v>
       </c>
@@ -4168,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>8</v>
       </c>
@@ -4197,7 +4156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>30</v>
       </c>
@@ -4226,7 +4185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>40</v>
       </c>
@@ -4255,7 +4214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>62</v>
       </c>
@@ -4284,7 +4243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>116</v>
       </c>
@@ -4313,7 +4272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>0</v>
       </c>
@@ -4342,7 +4301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>2</v>
       </c>
@@ -4371,7 +4330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>3</v>
       </c>
@@ -4400,7 +4359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>8</v>
       </c>
@@ -4429,7 +4388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>30</v>
       </c>
@@ -4458,7 +4417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>40</v>
       </c>
@@ -4487,7 +4446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>62</v>
       </c>
@@ -4516,7 +4475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>116</v>
       </c>
@@ -4545,7 +4504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>0</v>
       </c>
@@ -4574,7 +4533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>2</v>
       </c>
@@ -4603,7 +4562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>3</v>
       </c>
@@ -4632,7 +4591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>8</v>
       </c>
@@ -4661,7 +4620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>30</v>
       </c>
@@ -4690,7 +4649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>40</v>
       </c>
@@ -4719,7 +4678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>62</v>
       </c>
@@ -4748,7 +4707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>116</v>
       </c>
@@ -4777,12 +4736,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>0</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>30</v>
+      <c r="B146" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C146" s="6">
         <v>1</v>
@@ -4806,12 +4765,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>2</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>30</v>
+      <c r="B147" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C147" s="6">
         <v>1</v>
@@ -4835,12 +4794,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>3</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>30</v>
+      <c r="B148" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C148" s="6">
         <v>1</v>
@@ -4864,12 +4823,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>8</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>30</v>
+      <c r="B149" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C149" s="6">
         <v>1</v>
@@ -4893,12 +4852,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>30</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>30</v>
+      <c r="B150" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C150" s="6">
         <v>1</v>
@@ -4922,12 +4881,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>40</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>30</v>
+      <c r="B151" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C151" s="6">
         <v>1</v>
@@ -4951,12 +4910,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>62</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>30</v>
+      <c r="B152" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C152" s="6">
         <v>1</v>
@@ -4980,12 +4939,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>116</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>30</v>
+      <c r="B153" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C153" s="6">
         <v>1</v>
@@ -5009,12 +4968,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>0</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>30</v>
+      <c r="B154" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C154" s="6">
         <v>2</v>
@@ -5038,12 +4997,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>2</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>30</v>
+      <c r="B155" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C155" s="6">
         <v>2</v>
@@ -5067,12 +5026,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>3</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>30</v>
+      <c r="B156" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C156" s="6">
         <v>2</v>
@@ -5096,12 +5055,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>8</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>30</v>
+      <c r="B157" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C157" s="6">
         <v>2</v>
@@ -5125,12 +5084,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>30</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>30</v>
+      <c r="B158" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C158" s="6">
         <v>2</v>
@@ -5154,12 +5113,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>40</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>30</v>
+      <c r="B159" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C159" s="6">
         <v>2</v>
@@ -5183,12 +5142,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>62</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>30</v>
+      <c r="B160" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C160" s="6">
         <v>2</v>
@@ -5212,12 +5171,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>116</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>30</v>
+      <c r="B161" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C161" s="6">
         <v>2</v>
@@ -5241,12 +5200,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>0</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>30</v>
+      <c r="B162" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C162" s="6">
         <v>3</v>
@@ -5270,12 +5229,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>2</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>30</v>
+      <c r="B163" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C163" s="6">
         <v>3</v>
@@ -5299,12 +5258,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>3</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>30</v>
+      <c r="B164" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C164" s="6">
         <v>3</v>
@@ -5328,12 +5287,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>8</v>
       </c>
-      <c r="B165" s="9" t="s">
-        <v>30</v>
+      <c r="B165" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C165" s="6">
         <v>3</v>
@@ -5357,12 +5316,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>30</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>30</v>
+      <c r="B166" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C166" s="6">
         <v>3</v>
@@ -5386,12 +5345,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>40</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>30</v>
+      <c r="B167" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C167" s="6">
         <v>3</v>
@@ -5415,12 +5374,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>62</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>30</v>
+      <c r="B168" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C168" s="6">
         <v>3</v>
@@ -5444,12 +5403,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>116</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>30</v>
+      <c r="B169" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C169" s="6">
         <v>3</v>
@@ -5473,7 +5432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>0</v>
       </c>
@@ -5502,7 +5461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>2</v>
       </c>
@@ -5531,7 +5490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>3</v>
       </c>
@@ -5560,7 +5519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>8</v>
       </c>
@@ -5589,7 +5548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>30</v>
       </c>
@@ -5618,7 +5577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>40</v>
       </c>
@@ -5647,7 +5606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>62</v>
       </c>
@@ -5676,7 +5635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>116</v>
       </c>
@@ -5705,7 +5664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>0</v>
       </c>
@@ -5734,7 +5693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>2</v>
       </c>
@@ -5763,7 +5722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>3</v>
       </c>
@@ -5792,7 +5751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>8</v>
       </c>
@@ -5821,7 +5780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
         <v>30</v>
       </c>
@@ -5850,7 +5809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
         <v>40</v>
       </c>
@@ -5879,7 +5838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>62</v>
       </c>
@@ -5908,7 +5867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
         <v>116</v>
       </c>
@@ -5937,7 +5896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>0</v>
       </c>
@@ -5966,7 +5925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
         <v>2</v>
       </c>
@@ -5995,7 +5954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>3</v>
       </c>
@@ -6024,7 +5983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>8</v>
       </c>
@@ -6053,7 +6012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>30</v>
       </c>
@@ -6082,7 +6041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>40</v>
       </c>
@@ -6111,7 +6070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
         <v>62</v>
       </c>
@@ -6140,7 +6099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>116</v>
       </c>
@@ -6865,7 +6824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>0</v>
       </c>
@@ -6894,7 +6853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>2</v>
       </c>
@@ -6923,7 +6882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>3</v>
       </c>
@@ -6952,7 +6911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>8</v>
       </c>
@@ -6981,7 +6940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>30</v>
       </c>
@@ -7010,7 +6969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>40</v>
       </c>
@@ -7039,7 +6998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>62</v>
       </c>
@@ -7068,7 +7027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>116</v>
       </c>
@@ -7097,7 +7056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>0</v>
       </c>
@@ -7126,7 +7085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>2</v>
       </c>
@@ -7155,7 +7114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>3</v>
       </c>
@@ -7184,7 +7143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>8</v>
       </c>
@@ -7213,7 +7172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>30</v>
       </c>
@@ -7242,7 +7201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>40</v>
       </c>
@@ -7271,7 +7230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>62</v>
       </c>
@@ -7300,7 +7259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>116</v>
       </c>
@@ -7329,7 +7288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>0</v>
       </c>
@@ -7358,7 +7317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>2</v>
       </c>
@@ -7387,7 +7346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>3</v>
       </c>
@@ -7416,7 +7375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>8</v>
       </c>
@@ -7445,7 +7404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>30</v>
       </c>
@@ -7474,7 +7433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>40</v>
       </c>
@@ -7503,7 +7462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>62</v>
       </c>
@@ -7532,7 +7491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>116</v>
       </c>
@@ -7566,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C242" s="6">
         <v>1</v>
@@ -7595,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C243" s="6">
         <v>1</v>
@@ -7624,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C244" s="6">
         <v>1</v>
@@ -7653,7 +7612,7 @@
         <v>8</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C245" s="6">
         <v>1</v>
@@ -7682,7 +7641,7 @@
         <v>30</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C246" s="6">
         <v>1</v>
@@ -7711,7 +7670,7 @@
         <v>40</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C247" s="6">
         <v>1</v>
@@ -7740,7 +7699,7 @@
         <v>62</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C248" s="6">
         <v>1</v>
@@ -7769,7 +7728,7 @@
         <v>116</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C249" s="6">
         <v>1</v>
@@ -7798,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C250" s="6">
         <v>2</v>
@@ -7827,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C251" s="6">
         <v>2</v>
@@ -7856,7 +7815,7 @@
         <v>3</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C252" s="6">
         <v>2</v>
@@ -7885,7 +7844,7 @@
         <v>8</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C253" s="6">
         <v>2</v>
@@ -7914,7 +7873,7 @@
         <v>30</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C254" s="6">
         <v>2</v>
@@ -7943,7 +7902,7 @@
         <v>40</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C255" s="6">
         <v>2</v>
@@ -7972,7 +7931,7 @@
         <v>62</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C256" s="6">
         <v>2</v>
@@ -8001,7 +7960,7 @@
         <v>116</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C257" s="6">
         <v>2</v>
@@ -8030,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C258" s="6">
         <v>3</v>
@@ -8059,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C259" s="6">
         <v>3</v>
@@ -8088,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C260" s="6">
         <v>3</v>
@@ -8117,7 +8076,7 @@
         <v>8</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C261" s="6">
         <v>3</v>
@@ -8146,7 +8105,7 @@
         <v>30</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C262" s="6">
         <v>3</v>
@@ -8175,7 +8134,7 @@
         <v>40</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C263" s="6">
         <v>3</v>
@@ -8204,7 +8163,7 @@
         <v>62</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C264" s="6">
         <v>3</v>
@@ -8233,7 +8192,7 @@
         <v>116</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C265" s="6">
         <v>3</v>
@@ -8257,12 +8216,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>0</v>
       </c>
-      <c r="B266" s="9" t="s">
-        <v>31</v>
+      <c r="B266" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C266" s="6">
         <v>1</v>
@@ -8286,12 +8245,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>2</v>
       </c>
-      <c r="B267" s="9" t="s">
-        <v>31</v>
+      <c r="B267" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C267" s="6">
         <v>1</v>
@@ -8315,12 +8274,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>3</v>
       </c>
-      <c r="B268" s="9" t="s">
-        <v>31</v>
+      <c r="B268" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C268" s="6">
         <v>1</v>
@@ -8344,12 +8303,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>8</v>
       </c>
-      <c r="B269" s="9" t="s">
-        <v>31</v>
+      <c r="B269" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C269" s="6">
         <v>1</v>
@@ -8373,12 +8332,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
         <v>30</v>
       </c>
-      <c r="B270" s="9" t="s">
-        <v>31</v>
+      <c r="B270" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C270" s="6">
         <v>1</v>
@@ -8402,12 +8361,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
         <v>40</v>
       </c>
-      <c r="B271" s="9" t="s">
-        <v>31</v>
+      <c r="B271" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C271" s="6">
         <v>1</v>
@@ -8431,12 +8390,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
         <v>62</v>
       </c>
-      <c r="B272" s="9" t="s">
-        <v>31</v>
+      <c r="B272" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C272" s="6">
         <v>1</v>
@@ -8460,12 +8419,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
         <v>116</v>
       </c>
-      <c r="B273" s="9" t="s">
-        <v>31</v>
+      <c r="B273" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C273" s="6">
         <v>1</v>
@@ -8489,12 +8448,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
         <v>0</v>
       </c>
-      <c r="B274" s="9" t="s">
-        <v>31</v>
+      <c r="B274" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C274" s="6">
         <v>2</v>
@@ -8518,12 +8477,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
         <v>2</v>
       </c>
-      <c r="B275" s="9" t="s">
-        <v>31</v>
+      <c r="B275" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C275" s="6">
         <v>2</v>
@@ -8547,12 +8506,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
         <v>3</v>
       </c>
-      <c r="B276" s="9" t="s">
-        <v>31</v>
+      <c r="B276" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C276" s="6">
         <v>2</v>
@@ -8576,12 +8535,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>8</v>
       </c>
-      <c r="B277" s="9" t="s">
-        <v>31</v>
+      <c r="B277" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C277" s="6">
         <v>2</v>
@@ -8605,12 +8564,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
         <v>30</v>
       </c>
-      <c r="B278" s="9" t="s">
-        <v>31</v>
+      <c r="B278" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C278" s="6">
         <v>2</v>
@@ -8634,12 +8593,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
         <v>40</v>
       </c>
-      <c r="B279" s="9" t="s">
-        <v>31</v>
+      <c r="B279" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C279" s="6">
         <v>2</v>
@@ -8663,12 +8622,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
         <v>62</v>
       </c>
-      <c r="B280" s="9" t="s">
-        <v>31</v>
+      <c r="B280" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C280" s="6">
         <v>2</v>
@@ -8692,12 +8651,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
         <v>116</v>
       </c>
-      <c r="B281" s="9" t="s">
-        <v>31</v>
+      <c r="B281" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C281" s="6">
         <v>2</v>
@@ -8721,12 +8680,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
         <v>0</v>
       </c>
-      <c r="B282" s="9" t="s">
-        <v>31</v>
+      <c r="B282" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C282" s="6">
         <v>3</v>
@@ -8750,12 +8709,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
         <v>2</v>
       </c>
-      <c r="B283" s="9" t="s">
-        <v>31</v>
+      <c r="B283" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C283" s="6">
         <v>3</v>
@@ -8779,12 +8738,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
         <v>3</v>
       </c>
-      <c r="B284" s="9" t="s">
-        <v>31</v>
+      <c r="B284" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C284" s="6">
         <v>3</v>
@@ -8808,12 +8767,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
         <v>8</v>
       </c>
-      <c r="B285" s="9" t="s">
-        <v>31</v>
+      <c r="B285" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C285" s="6">
         <v>3</v>
@@ -8837,12 +8796,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
         <v>30</v>
       </c>
-      <c r="B286" s="9" t="s">
-        <v>31</v>
+      <c r="B286" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C286" s="6">
         <v>3</v>
@@ -8866,12 +8825,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
         <v>40</v>
       </c>
-      <c r="B287" s="9" t="s">
-        <v>31</v>
+      <c r="B287" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C287" s="6">
         <v>3</v>
@@ -8895,12 +8854,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
         <v>62</v>
       </c>
-      <c r="B288" s="9" t="s">
-        <v>31</v>
+      <c r="B288" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C288" s="6">
         <v>3</v>
@@ -8924,12 +8883,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6">
         <v>116</v>
       </c>
-      <c r="B289" s="9" t="s">
-        <v>31</v>
+      <c r="B289" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C289" s="6">
         <v>3</v>
@@ -8953,11 +8912,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
         <v>0</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C290" s="6">
@@ -8982,11 +8941,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
         <v>2</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C291" s="6">
@@ -9011,11 +8970,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
         <v>3</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C292" s="6">
@@ -9040,11 +8999,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
         <v>8</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C293" s="6">
@@ -9069,11 +9028,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
         <v>30</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C294" s="6">
@@ -9098,11 +9057,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
         <v>40</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C295" s="6">
@@ -9127,11 +9086,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
         <v>62</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C296" s="6">
@@ -9156,11 +9115,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
         <v>116</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C297" s="6">
@@ -9185,11 +9144,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
         <v>0</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C298" s="6">
@@ -9214,11 +9173,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
         <v>2</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C299" s="6">
@@ -9243,11 +9202,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
         <v>3</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C300" s="6">
@@ -9272,11 +9231,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
         <v>8</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C301" s="6">
@@ -9301,11 +9260,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
         <v>30</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C302" s="6">
@@ -9330,11 +9289,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
         <v>40</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C303" s="6">
@@ -9359,11 +9318,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
         <v>62</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C304" s="6">
@@ -9388,11 +9347,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
         <v>116</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C305" s="6">
@@ -9417,11 +9376,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
         <v>0</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C306" s="6">
@@ -9446,11 +9405,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
         <v>2</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C307" s="6">
@@ -9475,11 +9434,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
         <v>3</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C308" s="6">
@@ -9504,11 +9463,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="6">
         <v>8</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C309" s="6">
@@ -9533,11 +9492,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="6">
         <v>30</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C310" s="6">
@@ -9562,11 +9521,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="6">
         <v>40</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C311" s="6">
@@ -9591,11 +9550,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="6">
         <v>62</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C312" s="6">
@@ -9620,11 +9579,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="6">
         <v>116</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C313" s="6">
@@ -9649,7 +9608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="6">
         <v>0</v>
       </c>
@@ -9678,7 +9637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6">
         <v>2</v>
       </c>
@@ -9707,7 +9666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6">
         <v>3</v>
       </c>
@@ -9736,7 +9695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6">
         <v>8</v>
       </c>
@@ -9765,7 +9724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6">
         <v>30</v>
       </c>
@@ -9794,7 +9753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6">
         <v>40</v>
       </c>
@@ -9823,7 +9782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6">
         <v>62</v>
       </c>
@@ -9852,7 +9811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="6">
         <v>116</v>
       </c>
@@ -9881,7 +9840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="6">
         <v>0</v>
       </c>
@@ -9910,7 +9869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="6">
         <v>2</v>
       </c>
@@ -9939,7 +9898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="6">
         <v>3</v>
       </c>
@@ -9968,7 +9927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6">
         <v>8</v>
       </c>
@@ -9997,7 +9956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="6">
         <v>30</v>
       </c>
@@ -10026,7 +9985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6">
         <v>40</v>
       </c>
@@ -10055,7 +10014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="6">
         <v>62</v>
       </c>
@@ -10084,7 +10043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="6">
         <v>116</v>
       </c>
@@ -10113,7 +10072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="6">
         <v>0</v>
       </c>
@@ -10142,7 +10101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="6">
         <v>2</v>
       </c>
@@ -10171,7 +10130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="6">
         <v>3</v>
       </c>
@@ -10200,7 +10159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="6">
         <v>8</v>
       </c>
@@ -10229,7 +10188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="6">
         <v>30</v>
       </c>
@@ -10258,7 +10217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6">
         <v>40</v>
       </c>
@@ -10287,7 +10246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="6">
         <v>62</v>
       </c>
@@ -10316,7 +10275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6">
         <v>116</v>
       </c>
@@ -10345,11 +10304,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6">
         <v>0</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C338" s="6">
@@ -10374,11 +10333,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6">
         <v>2</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C339" s="6">
@@ -10403,11 +10362,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="6">
         <v>3</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C340" s="6">
@@ -10432,11 +10391,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6">
         <v>8</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C341" s="6">
@@ -10461,11 +10420,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="6">
         <v>30</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B342" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C342" s="6">
@@ -10490,11 +10449,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="6">
         <v>40</v>
       </c>
-      <c r="B343" s="10" t="s">
+      <c r="B343" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C343" s="6">
@@ -10519,11 +10478,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="6">
         <v>62</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C344" s="6">
@@ -10548,11 +10507,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="6">
         <v>116</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C345" s="6">
@@ -10577,11 +10536,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="6">
         <v>0</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C346" s="6">
@@ -10606,11 +10565,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="6">
         <v>2</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C347" s="6">
@@ -10635,11 +10594,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="6">
         <v>3</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C348" s="6">
@@ -10664,11 +10623,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="6">
         <v>8</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C349" s="6">
@@ -10693,11 +10652,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="6">
         <v>30</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B350" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C350" s="6">
@@ -10722,11 +10681,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="6">
         <v>40</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="B351" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C351" s="6">
@@ -10751,11 +10710,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6">
         <v>62</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B352" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C352" s="6">
@@ -10780,11 +10739,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6">
         <v>116</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C353" s="6">
@@ -10809,11 +10768,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="6">
         <v>0</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B354" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C354" s="6">
@@ -10838,11 +10797,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="6">
         <v>2</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B355" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C355" s="6">
@@ -10867,11 +10826,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="6">
         <v>3</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B356" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C356" s="6">
@@ -10896,11 +10855,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="6">
         <v>8</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B357" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C357" s="6">
@@ -10925,11 +10884,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="6">
         <v>30</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B358" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C358" s="6">
@@ -10954,11 +10913,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="6">
         <v>40</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B359" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C359" s="6">
@@ -10983,11 +10942,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="6">
         <v>62</v>
       </c>
-      <c r="B360" s="10" t="s">
+      <c r="B360" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C360" s="6">
@@ -11012,11 +10971,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="6">
         <v>116</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B361" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C361" s="6">
@@ -11041,7 +11000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="6">
         <v>0</v>
       </c>
@@ -11070,7 +11029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6">
         <v>2</v>
       </c>
@@ -11099,7 +11058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="6">
         <v>3</v>
       </c>
@@ -11128,7 +11087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="6">
         <v>8</v>
       </c>
@@ -11157,7 +11116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="6">
         <v>30</v>
       </c>
@@ -11186,7 +11145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="6">
         <v>40</v>
       </c>
@@ -11215,7 +11174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="6">
         <v>62</v>
       </c>
@@ -11244,7 +11203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="6">
         <v>116</v>
       </c>
@@ -11273,7 +11232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="6">
         <v>0</v>
       </c>
@@ -11302,7 +11261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="6">
         <v>2</v>
       </c>
@@ -11331,7 +11290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="6">
         <v>3</v>
       </c>
@@ -11360,7 +11319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="6">
         <v>8</v>
       </c>
@@ -11389,7 +11348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="6">
         <v>30</v>
       </c>
@@ -11418,7 +11377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="6">
         <v>40</v>
       </c>
@@ -11447,7 +11406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="6">
         <v>62</v>
       </c>
@@ -11476,7 +11435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="6">
         <v>116</v>
       </c>
@@ -11505,7 +11464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="6">
         <v>0</v>
       </c>
@@ -11534,7 +11493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="6">
         <v>2</v>
       </c>
@@ -11563,7 +11522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="6">
         <v>3</v>
       </c>
@@ -11592,7 +11551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="6">
         <v>8</v>
       </c>
@@ -11621,7 +11580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="6">
         <v>30</v>
       </c>
@@ -11650,7 +11609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="6">
         <v>40</v>
       </c>
@@ -11679,7 +11638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="6">
         <v>62</v>
       </c>
@@ -11708,7 +11667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6">
         <v>116</v>
       </c>
@@ -11737,7 +11696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="6">
         <v>0</v>
       </c>
@@ -11766,7 +11725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="6">
         <v>2</v>
       </c>
@@ -11795,7 +11754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="6">
         <v>3</v>
       </c>
@@ -11824,7 +11783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="6">
         <v>8</v>
       </c>
@@ -11853,7 +11812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="6">
         <v>30</v>
       </c>
@@ -11882,7 +11841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="6">
         <v>40</v>
       </c>
@@ -11911,7 +11870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="6">
         <v>62</v>
       </c>
@@ -11940,7 +11899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="6">
         <v>116</v>
       </c>
@@ -11969,7 +11928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="6">
         <v>0</v>
       </c>
@@ -11998,7 +11957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="6">
         <v>2</v>
       </c>
@@ -12027,7 +11986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="6">
         <v>3</v>
       </c>
@@ -12056,7 +12015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="6">
         <v>8</v>
       </c>
@@ -12085,7 +12044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="6">
         <v>30</v>
       </c>
@@ -12114,7 +12073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="6">
         <v>40</v>
       </c>
@@ -12143,7 +12102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="6">
         <v>62</v>
       </c>
@@ -12172,7 +12131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" s="6">
         <v>116</v>
       </c>
@@ -12201,7 +12160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="6">
         <v>0</v>
       </c>
@@ -12230,7 +12189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="6">
         <v>2</v>
       </c>
@@ -12259,7 +12218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="6">
         <v>3</v>
       </c>
@@ -12288,7 +12247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="6">
         <v>8</v>
       </c>
@@ -12317,7 +12276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="6">
         <v>30</v>
       </c>
@@ -12346,7 +12305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6">
         <v>40</v>
       </c>
@@ -12375,7 +12334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="6">
         <v>62</v>
       </c>
@@ -12404,7 +12363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="6">
         <v>116</v>
       </c>
@@ -12433,11 +12392,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="6">
         <v>0</v>
       </c>
-      <c r="B410" s="10" t="s">
+      <c r="B410" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C410" s="6">
@@ -12462,11 +12421,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="6">
         <v>2</v>
       </c>
-      <c r="B411" s="10" t="s">
+      <c r="B411" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C411" s="6">
@@ -12491,11 +12450,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="6">
         <v>3</v>
       </c>
-      <c r="B412" s="10" t="s">
+      <c r="B412" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C412" s="6">
@@ -12520,11 +12479,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="6">
         <v>8</v>
       </c>
-      <c r="B413" s="10" t="s">
+      <c r="B413" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C413" s="6">
@@ -12549,11 +12508,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="6">
         <v>30</v>
       </c>
-      <c r="B414" s="10" t="s">
+      <c r="B414" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C414" s="6">
@@ -12578,11 +12537,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="6">
         <v>40</v>
       </c>
-      <c r="B415" s="10" t="s">
+      <c r="B415" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C415" s="6">
@@ -12607,11 +12566,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="6">
         <v>62</v>
       </c>
-      <c r="B416" s="10" t="s">
+      <c r="B416" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C416" s="6">
@@ -12636,11 +12595,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="6">
         <v>116</v>
       </c>
-      <c r="B417" s="10" t="s">
+      <c r="B417" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C417" s="6">
@@ -12665,11 +12624,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6">
         <v>0</v>
       </c>
-      <c r="B418" s="10" t="s">
+      <c r="B418" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C418" s="6">
@@ -12694,11 +12653,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="6">
         <v>2</v>
       </c>
-      <c r="B419" s="10" t="s">
+      <c r="B419" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C419" s="6">
@@ -12723,11 +12682,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="6">
         <v>3</v>
       </c>
-      <c r="B420" s="10" t="s">
+      <c r="B420" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C420" s="6">
@@ -12752,11 +12711,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="6">
         <v>8</v>
       </c>
-      <c r="B421" s="10" t="s">
+      <c r="B421" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C421" s="6">
@@ -12781,11 +12740,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="6">
         <v>30</v>
       </c>
-      <c r="B422" s="10" t="s">
+      <c r="B422" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C422" s="6">
@@ -12810,11 +12769,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="6">
         <v>40</v>
       </c>
-      <c r="B423" s="10" t="s">
+      <c r="B423" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C423" s="6">
@@ -12839,11 +12798,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="6">
         <v>62</v>
       </c>
-      <c r="B424" s="10" t="s">
+      <c r="B424" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C424" s="6">
@@ -12868,11 +12827,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="6">
         <v>116</v>
       </c>
-      <c r="B425" s="10" t="s">
+      <c r="B425" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C425" s="6">
@@ -12897,11 +12856,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="6">
         <v>0</v>
       </c>
-      <c r="B426" s="10" t="s">
+      <c r="B426" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C426" s="6">
@@ -12926,11 +12885,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="6">
         <v>2</v>
       </c>
-      <c r="B427" s="10" t="s">
+      <c r="B427" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C427" s="6">
@@ -12955,11 +12914,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="6">
         <v>3</v>
       </c>
-      <c r="B428" s="10" t="s">
+      <c r="B428" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C428" s="6">
@@ -12984,11 +12943,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="6">
         <v>8</v>
       </c>
-      <c r="B429" s="10" t="s">
+      <c r="B429" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C429" s="6">
@@ -13013,11 +12972,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="6">
         <v>30</v>
       </c>
-      <c r="B430" s="10" t="s">
+      <c r="B430" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C430" s="6">
@@ -13042,11 +13001,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="6">
         <v>40</v>
       </c>
-      <c r="B431" s="10" t="s">
+      <c r="B431" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C431" s="6">
@@ -13071,11 +13030,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="6">
         <v>62</v>
       </c>
-      <c r="B432" s="10" t="s">
+      <c r="B432" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C432" s="6">
@@ -13100,11 +13059,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="6">
         <v>116</v>
       </c>
-      <c r="B433" s="10" t="s">
+      <c r="B433" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C433" s="6">
@@ -13129,7 +13088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>0</v>
       </c>
@@ -13158,7 +13117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>2</v>
       </c>
@@ -13187,7 +13146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>3</v>
       </c>
@@ -13216,7 +13175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>8</v>
       </c>
@@ -13245,7 +13204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>30</v>
       </c>
@@ -13274,7 +13233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>40</v>
       </c>
@@ -13303,7 +13262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>62</v>
       </c>
@@ -13332,7 +13291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>116</v>
       </c>
@@ -13361,7 +13320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -13390,7 +13349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>2</v>
       </c>
@@ -13419,7 +13378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>3</v>
       </c>
@@ -13448,7 +13407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>8</v>
       </c>
@@ -13477,7 +13436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>30</v>
       </c>
@@ -13506,7 +13465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>40</v>
       </c>
@@ -13535,7 +13494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>62</v>
       </c>
@@ -13564,7 +13523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>116</v>
       </c>
@@ -13593,7 +13552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>0</v>
       </c>
@@ -13622,7 +13581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>2</v>
       </c>
@@ -13651,7 +13610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>3</v>
       </c>
@@ -13680,7 +13639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>8</v>
       </c>
@@ -13709,7 +13668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>30</v>
       </c>
@@ -13738,7 +13697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>40</v>
       </c>
@@ -13767,7 +13726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>62</v>
       </c>
@@ -13796,7 +13755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>116</v>
       </c>
@@ -13825,7 +13784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="6">
         <v>0</v>
       </c>
@@ -13854,7 +13813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="6">
         <v>2</v>
       </c>
@@ -13883,7 +13842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="6">
         <v>3</v>
       </c>
@@ -13912,7 +13871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="6">
         <v>8</v>
       </c>
@@ -13941,7 +13900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="6">
         <v>30</v>
       </c>
@@ -13970,7 +13929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="6">
         <v>40</v>
       </c>
@@ -13999,7 +13958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="6">
         <v>62</v>
       </c>
@@ -14028,7 +13987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" s="6">
         <v>116</v>
       </c>
@@ -14057,7 +14016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="6">
         <v>0</v>
       </c>
@@ -14086,7 +14045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="6">
         <v>2</v>
       </c>
@@ -14115,7 +14074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="6">
         <v>3</v>
       </c>
@@ -14144,7 +14103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="6">
         <v>8</v>
       </c>
@@ -14173,7 +14132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="6">
         <v>30</v>
       </c>
@@ -14202,7 +14161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="6">
         <v>40</v>
       </c>
@@ -14231,7 +14190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="6">
         <v>62</v>
       </c>
@@ -14260,7 +14219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="6">
         <v>116</v>
       </c>
@@ -14289,7 +14248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="6">
         <v>0</v>
       </c>
@@ -14318,7 +14277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="6">
         <v>2</v>
       </c>
@@ -14347,7 +14306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="6">
         <v>3</v>
       </c>
@@ -14376,7 +14335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="6">
         <v>8</v>
       </c>
@@ -14405,7 +14364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="6">
         <v>30</v>
       </c>
@@ -14434,7 +14393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="6">
         <v>40</v>
       </c>
@@ -14463,7 +14422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="6">
         <v>62</v>
       </c>
@@ -14492,7 +14451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="6">
         <v>116</v>
       </c>
@@ -14521,7 +14480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="6">
         <v>0</v>
       </c>
@@ -14550,7 +14509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="6">
         <v>2</v>
       </c>
@@ -14579,7 +14538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="6">
         <v>3</v>
       </c>
@@ -14608,7 +14567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="6">
         <v>8</v>
       </c>
@@ -14637,7 +14596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="6">
         <v>30</v>
       </c>
@@ -14666,7 +14625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="6">
         <v>40</v>
       </c>
@@ -14695,7 +14654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="6">
         <v>62</v>
       </c>
@@ -14724,7 +14683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="6">
         <v>116</v>
       </c>
@@ -14753,7 +14712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="6">
         <v>0</v>
       </c>
@@ -14782,7 +14741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="6">
         <v>2</v>
       </c>
@@ -14811,7 +14770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="6">
         <v>3</v>
       </c>
@@ -14840,7 +14799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" s="6">
         <v>8</v>
       </c>
@@ -14869,7 +14828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="6">
         <v>30</v>
       </c>
@@ -14898,7 +14857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" s="6">
         <v>40</v>
       </c>
@@ -14927,7 +14886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="6">
         <v>62</v>
       </c>
@@ -14956,7 +14915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="6">
         <v>116</v>
       </c>
@@ -14985,7 +14944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="6">
         <v>0</v>
       </c>
@@ -15014,7 +14973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="6">
         <v>2</v>
       </c>
@@ -15043,7 +15002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="6">
         <v>3</v>
       </c>
@@ -15072,7 +15031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" s="6">
         <v>8</v>
       </c>
@@ -15101,7 +15060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="6">
         <v>30</v>
       </c>
@@ -15130,7 +15089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" s="6">
         <v>40</v>
       </c>
@@ -15159,7 +15118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="6">
         <v>62</v>
       </c>
@@ -15188,7 +15147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="6">
         <v>116</v>
       </c>
@@ -15217,7 +15176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" s="6">
         <v>0</v>
       </c>
@@ -15246,7 +15205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="6">
         <v>2</v>
       </c>
@@ -15275,7 +15234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="6">
         <v>3</v>
       </c>
@@ -15304,7 +15263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="6">
         <v>8</v>
       </c>
@@ -15333,7 +15292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510" s="6">
         <v>30</v>
       </c>
@@ -15362,7 +15321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="6">
         <v>40</v>
       </c>
@@ -15391,7 +15350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="6">
         <v>62</v>
       </c>
@@ -15420,7 +15379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="6">
         <v>116</v>
       </c>
@@ -15449,7 +15408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="6">
         <v>0</v>
       </c>
@@ -15478,7 +15437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515" s="6">
         <v>2</v>
       </c>
@@ -15507,7 +15466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="6">
         <v>3</v>
       </c>
@@ -15536,7 +15495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="6">
         <v>8</v>
       </c>
@@ -15565,7 +15524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="6">
         <v>30</v>
       </c>
@@ -15594,7 +15553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="6">
         <v>40</v>
       </c>
@@ -15623,7 +15582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="6">
         <v>62</v>
       </c>
@@ -15652,7 +15611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="6">
         <v>116</v>
       </c>
@@ -15681,7 +15640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="6">
         <v>0</v>
       </c>
@@ -15710,7 +15669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="6">
         <v>2</v>
       </c>
@@ -15739,7 +15698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="6">
         <v>3</v>
       </c>
@@ -15768,7 +15727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="6">
         <v>8</v>
       </c>
@@ -15797,7 +15756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526" s="6">
         <v>30</v>
       </c>
@@ -15826,7 +15785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527" s="6">
         <v>40</v>
       </c>
@@ -15855,7 +15814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="6">
         <v>62</v>
       </c>
@@ -15884,7 +15843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="6">
         <v>116</v>
       </c>
@@ -15913,7 +15872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="6">
         <v>0</v>
       </c>
@@ -15942,7 +15901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="6">
         <v>2</v>
       </c>
@@ -15971,7 +15930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="6">
         <v>3</v>
       </c>
@@ -16000,7 +15959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="6">
         <v>8</v>
       </c>
@@ -16029,7 +15988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="6">
         <v>30</v>
       </c>
@@ -16058,7 +16017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="6">
         <v>40</v>
       </c>
@@ -16087,7 +16046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="6">
         <v>62</v>
       </c>
@@ -16116,7 +16075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="6">
         <v>116</v>
       </c>
@@ -16145,7 +16104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="6">
         <v>0</v>
       </c>
@@ -16174,7 +16133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="6">
         <v>2</v>
       </c>
@@ -16203,7 +16162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" s="6">
         <v>3</v>
       </c>
@@ -16232,7 +16191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="6">
         <v>8</v>
       </c>
@@ -16261,7 +16220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="6">
         <v>30</v>
       </c>
@@ -16290,7 +16249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="6">
         <v>40</v>
       </c>
@@ -16319,7 +16278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="6">
         <v>62</v>
       </c>
@@ -16348,7 +16307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="6">
         <v>116</v>
       </c>
@@ -16377,7 +16336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="6">
         <v>0</v>
       </c>
@@ -16406,7 +16365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="6">
         <v>2</v>
       </c>
@@ -16435,7 +16394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="6">
         <v>3</v>
       </c>
@@ -16464,7 +16423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="6">
         <v>8</v>
       </c>
@@ -16493,7 +16452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="6">
         <v>30</v>
       </c>
@@ -16522,7 +16481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="6">
         <v>40</v>
       </c>
@@ -16551,7 +16510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="6">
         <v>62</v>
       </c>
@@ -16580,7 +16539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" s="6">
         <v>116</v>
       </c>
@@ -16609,11 +16568,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="6">
         <v>0</v>
       </c>
-      <c r="B554" s="10" t="s">
+      <c r="B554" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C554" s="6">
@@ -16638,11 +16597,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" s="6">
         <v>2</v>
       </c>
-      <c r="B555" s="10" t="s">
+      <c r="B555" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C555" s="6">
@@ -16667,11 +16626,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="6">
         <v>3</v>
       </c>
-      <c r="B556" s="10" t="s">
+      <c r="B556" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C556" s="6">
@@ -16696,11 +16655,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="6">
         <v>8</v>
       </c>
-      <c r="B557" s="10" t="s">
+      <c r="B557" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C557" s="6">
@@ -16725,11 +16684,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="6">
         <v>30</v>
       </c>
-      <c r="B558" s="10" t="s">
+      <c r="B558" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C558" s="6">
@@ -16754,11 +16713,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="6">
         <v>40</v>
       </c>
-      <c r="B559" s="10" t="s">
+      <c r="B559" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C559" s="6">
@@ -16783,11 +16742,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="6">
         <v>62</v>
       </c>
-      <c r="B560" s="10" t="s">
+      <c r="B560" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C560" s="6">
@@ -16812,11 +16771,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="6">
         <v>116</v>
       </c>
-      <c r="B561" s="10" t="s">
+      <c r="B561" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C561" s="6">
@@ -16841,11 +16800,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" s="6">
         <v>0</v>
       </c>
-      <c r="B562" s="10" t="s">
+      <c r="B562" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C562" s="6">
@@ -16870,11 +16829,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="6">
         <v>2</v>
       </c>
-      <c r="B563" s="10" t="s">
+      <c r="B563" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C563" s="6">
@@ -16899,11 +16858,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" s="6">
         <v>3</v>
       </c>
-      <c r="B564" s="10" t="s">
+      <c r="B564" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C564" s="6">
@@ -16928,11 +16887,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="6">
         <v>8</v>
       </c>
-      <c r="B565" s="10" t="s">
+      <c r="B565" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C565" s="6">
@@ -16957,11 +16916,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" s="6">
         <v>30</v>
       </c>
-      <c r="B566" s="10" t="s">
+      <c r="B566" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C566" s="6">
@@ -16986,11 +16945,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" s="6">
         <v>40</v>
       </c>
-      <c r="B567" s="10" t="s">
+      <c r="B567" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C567" s="6">
@@ -17015,11 +16974,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="6">
         <v>62</v>
       </c>
-      <c r="B568" s="10" t="s">
+      <c r="B568" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C568" s="6">
@@ -17044,11 +17003,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="6">
         <v>116</v>
       </c>
-      <c r="B569" s="10" t="s">
+      <c r="B569" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C569" s="6">
@@ -17073,11 +17032,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="6">
         <v>0</v>
       </c>
-      <c r="B570" s="10" t="s">
+      <c r="B570" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C570" s="6">
@@ -17102,11 +17061,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" s="6">
         <v>2</v>
       </c>
-      <c r="B571" s="10" t="s">
+      <c r="B571" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C571" s="6">
@@ -17131,11 +17090,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="6">
         <v>3</v>
       </c>
-      <c r="B572" s="10" t="s">
+      <c r="B572" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C572" s="6">
@@ -17160,11 +17119,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="6">
         <v>8</v>
       </c>
-      <c r="B573" s="10" t="s">
+      <c r="B573" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C573" s="6">
@@ -17189,11 +17148,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" s="6">
         <v>30</v>
       </c>
-      <c r="B574" s="10" t="s">
+      <c r="B574" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C574" s="6">
@@ -17218,11 +17177,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" s="6">
         <v>40</v>
       </c>
-      <c r="B575" s="10" t="s">
+      <c r="B575" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C575" s="6">
@@ -17247,11 +17206,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" s="6">
         <v>62</v>
       </c>
-      <c r="B576" s="10" t="s">
+      <c r="B576" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C576" s="6">
@@ -17276,11 +17235,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="6">
         <v>116</v>
       </c>
-      <c r="B577" s="10" t="s">
+      <c r="B577" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C577" s="6">
@@ -17305,7 +17264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" s="6">
         <v>0</v>
       </c>
@@ -17334,7 +17293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="6">
         <v>2</v>
       </c>
@@ -17363,7 +17322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="6">
         <v>3</v>
       </c>
@@ -17392,7 +17351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="6">
         <v>8</v>
       </c>
@@ -17421,7 +17380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" s="6">
         <v>30</v>
       </c>
@@ -17450,7 +17409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="6">
         <v>40</v>
       </c>
@@ -17479,7 +17438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="6">
         <v>62</v>
       </c>
@@ -17508,7 +17467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="6">
         <v>116</v>
       </c>
@@ -17537,7 +17496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="6">
         <v>0</v>
       </c>
@@ -17566,7 +17525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="6">
         <v>2</v>
       </c>
@@ -17595,7 +17554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="6">
         <v>3</v>
       </c>
@@ -17624,7 +17583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="6">
         <v>8</v>
       </c>
@@ -17653,7 +17612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" s="6">
         <v>30</v>
       </c>
@@ -17682,7 +17641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="6">
         <v>40</v>
       </c>
@@ -17711,7 +17670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" s="6">
         <v>62</v>
       </c>
@@ -17740,7 +17699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="6">
         <v>116</v>
       </c>
@@ -17769,7 +17728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="6">
         <v>0</v>
       </c>
@@ -17798,7 +17757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="6">
         <v>2</v>
       </c>
@@ -17827,7 +17786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="6">
         <v>3</v>
       </c>
@@ -17856,7 +17815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="6">
         <v>8</v>
       </c>
@@ -17885,7 +17844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="6">
         <v>30</v>
       </c>
@@ -17914,7 +17873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="6">
         <v>40</v>
       </c>
@@ -17943,7 +17902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="6">
         <v>62</v>
       </c>
@@ -17972,7 +17931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" s="6">
         <v>116</v>
       </c>
@@ -18001,7 +17960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="6">
         <v>0</v>
       </c>
@@ -18030,7 +17989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="6">
         <v>2</v>
       </c>
@@ -18059,7 +18018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" s="6">
         <v>3</v>
       </c>
@@ -18088,7 +18047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" s="6">
         <v>8</v>
       </c>
@@ -18117,7 +18076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" s="6">
         <v>30</v>
       </c>
@@ -18146,7 +18105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="6">
         <v>40</v>
       </c>
@@ -18175,7 +18134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" s="6">
         <v>62</v>
       </c>
@@ -18204,7 +18163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="6">
         <v>116</v>
       </c>
@@ -18233,7 +18192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="6">
         <v>0</v>
       </c>
@@ -18262,7 +18221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="6">
         <v>2</v>
       </c>
@@ -18291,7 +18250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="6">
         <v>3</v>
       </c>
@@ -18320,7 +18279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="6">
         <v>8</v>
       </c>
@@ -18349,7 +18308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="6">
         <v>30</v>
       </c>
@@ -18378,7 +18337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="6">
         <v>40</v>
       </c>
@@ -18407,7 +18366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="6">
         <v>62</v>
       </c>
@@ -18436,7 +18395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" s="6">
         <v>116</v>
       </c>
@@ -18465,7 +18424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="6">
         <v>0</v>
       </c>
@@ -18494,7 +18453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="6">
         <v>2</v>
       </c>
@@ -18523,7 +18482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="6">
         <v>3</v>
       </c>
@@ -18552,7 +18511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" s="6">
         <v>8</v>
       </c>
@@ -18581,7 +18540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="6">
         <v>30</v>
       </c>
@@ -18610,7 +18569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="6">
         <v>40</v>
       </c>
@@ -18639,7 +18598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="6">
         <v>62</v>
       </c>
@@ -18668,7 +18627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="6">
         <v>116</v>
       </c>
@@ -18697,7 +18656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" s="6">
         <v>0</v>
       </c>
@@ -18726,7 +18685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="6">
         <v>2</v>
       </c>
@@ -18755,7 +18714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="6">
         <v>3</v>
       </c>
@@ -18784,7 +18743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="6">
         <v>8</v>
       </c>
@@ -18813,7 +18772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="6">
         <v>30</v>
       </c>
@@ -18842,7 +18801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" s="6">
         <v>40</v>
       </c>
@@ -18871,7 +18830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="6">
         <v>62</v>
       </c>
@@ -18900,7 +18859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="6">
         <v>116</v>
       </c>
@@ -18929,7 +18888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" s="6">
         <v>0</v>
       </c>
@@ -18958,7 +18917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="6">
         <v>2</v>
       </c>
@@ -18987,7 +18946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" s="6">
         <v>3</v>
       </c>
@@ -19016,7 +18975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="6">
         <v>8</v>
       </c>
@@ -19045,7 +19004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" s="6">
         <v>30</v>
       </c>
@@ -19074,7 +19033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="6">
         <v>40</v>
       </c>
@@ -19103,7 +19062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="6">
         <v>62</v>
       </c>
@@ -19132,7 +19091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="6">
         <v>116</v>
       </c>
@@ -19161,7 +19120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="6">
         <v>0</v>
       </c>
@@ -19190,7 +19149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="6">
         <v>2</v>
       </c>
@@ -19219,7 +19178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" s="6">
         <v>3</v>
       </c>
@@ -19248,7 +19207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="6">
         <v>8</v>
       </c>
@@ -19277,7 +19236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="6">
         <v>30</v>
       </c>
@@ -19306,7 +19265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" s="6">
         <v>40</v>
       </c>
@@ -19335,7 +19294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" s="6">
         <v>62</v>
       </c>
@@ -19364,7 +19323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" s="6">
         <v>116</v>
       </c>
@@ -19393,7 +19352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="6">
         <v>0</v>
       </c>
@@ -19422,7 +19381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="6">
         <v>2</v>
       </c>
@@ -19451,7 +19410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="6">
         <v>3</v>
       </c>
@@ -19480,7 +19439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" s="6">
         <v>8</v>
       </c>
@@ -19509,7 +19468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="6">
         <v>30</v>
       </c>
@@ -19538,7 +19497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="6">
         <v>40</v>
       </c>
@@ -19567,7 +19526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="6">
         <v>62</v>
       </c>
@@ -19596,7 +19555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="6">
         <v>116</v>
       </c>
@@ -19625,7 +19584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" s="6">
         <v>0</v>
       </c>
@@ -19654,7 +19613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="6">
         <v>2</v>
       </c>
@@ -19683,7 +19642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="6">
         <v>3</v>
       </c>
@@ -19712,7 +19671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="6">
         <v>8</v>
       </c>
@@ -19741,7 +19700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="6">
         <v>30</v>
       </c>
@@ -19770,7 +19729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="6">
         <v>40</v>
       </c>
@@ -19799,7 +19758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="6">
         <v>62</v>
       </c>
@@ -19828,7 +19787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" s="6">
         <v>116</v>
       </c>
@@ -19857,7 +19816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="6">
         <v>0</v>
       </c>
@@ -19886,7 +19845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="6">
         <v>2</v>
       </c>
@@ -19915,7 +19874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" s="6">
         <v>3</v>
       </c>
@@ -19944,7 +19903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="6">
         <v>8</v>
       </c>
@@ -19973,7 +19932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="6">
         <v>30</v>
       </c>
@@ -20002,7 +19961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="6">
         <v>40</v>
       </c>
@@ -20031,7 +19990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" s="6">
         <v>62</v>
       </c>
@@ -20060,7 +20019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="6">
         <v>116</v>
       </c>
@@ -20089,7 +20048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="6">
         <v>0</v>
       </c>
@@ -20118,7 +20077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" s="6">
         <v>2</v>
       </c>
@@ -20147,7 +20106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="6">
         <v>3</v>
       </c>
@@ -20176,7 +20135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="6">
         <v>8</v>
       </c>
@@ -20205,7 +20164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" s="6">
         <v>30</v>
       </c>
@@ -20234,7 +20193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="6">
         <v>40</v>
       </c>
@@ -20263,7 +20222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="6">
         <v>62</v>
       </c>
@@ -20292,7 +20251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="6">
         <v>116</v>
       </c>
@@ -20321,7 +20280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" s="6">
         <v>0</v>
       </c>
@@ -20350,7 +20309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="6">
         <v>2</v>
       </c>
@@ -20379,7 +20338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="6">
         <v>3</v>
       </c>
@@ -20408,7 +20367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" s="6">
         <v>8</v>
       </c>
@@ -20437,7 +20396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="6">
         <v>30</v>
       </c>
@@ -20466,7 +20425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="6">
         <v>40</v>
       </c>
@@ -20495,7 +20454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="6">
         <v>62</v>
       </c>
@@ -20524,7 +20483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="6">
         <v>116</v>
       </c>
@@ -20553,7 +20512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" s="6">
         <v>0</v>
       </c>
@@ -20582,7 +20541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="6">
         <v>2</v>
       </c>
@@ -20611,7 +20570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="6">
         <v>3</v>
       </c>
@@ -20640,7 +20599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="6">
         <v>8</v>
       </c>
@@ -20669,7 +20628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" s="6">
         <v>30</v>
       </c>
@@ -20698,7 +20657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="6">
         <v>40</v>
       </c>
@@ -20727,7 +20686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="6">
         <v>62</v>
       </c>
@@ -20756,7 +20715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="6">
         <v>116</v>
       </c>
@@ -20785,11 +20744,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="6">
         <v>0</v>
       </c>
-      <c r="B698" s="10" t="s">
+      <c r="B698" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C698" s="6">
@@ -20814,11 +20773,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="6">
         <v>2</v>
       </c>
-      <c r="B699" s="10" t="s">
+      <c r="B699" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C699" s="6">
@@ -20843,11 +20802,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="6">
         <v>3</v>
       </c>
-      <c r="B700" s="10" t="s">
+      <c r="B700" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C700" s="6">
@@ -20872,11 +20831,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="6">
         <v>8</v>
       </c>
-      <c r="B701" s="10" t="s">
+      <c r="B701" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C701" s="6">
@@ -20901,11 +20860,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" s="6">
         <v>30</v>
       </c>
-      <c r="B702" s="10" t="s">
+      <c r="B702" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C702" s="6">
@@ -20930,11 +20889,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="6">
         <v>40</v>
       </c>
-      <c r="B703" s="10" t="s">
+      <c r="B703" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C703" s="6">
@@ -20959,11 +20918,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="6">
         <v>62</v>
       </c>
-      <c r="B704" s="10" t="s">
+      <c r="B704" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C704" s="6">
@@ -20988,11 +20947,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="6">
         <v>116</v>
       </c>
-      <c r="B705" s="10" t="s">
+      <c r="B705" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C705" s="6">
@@ -21017,11 +20976,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" s="6">
         <v>0</v>
       </c>
-      <c r="B706" s="10" t="s">
+      <c r="B706" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C706" s="6">
@@ -21046,11 +21005,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" s="6">
         <v>2</v>
       </c>
-      <c r="B707" s="10" t="s">
+      <c r="B707" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C707" s="6">
@@ -21075,11 +21034,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="6">
         <v>3</v>
       </c>
-      <c r="B708" s="10" t="s">
+      <c r="B708" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C708" s="6">
@@ -21104,11 +21063,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="6">
         <v>8</v>
       </c>
-      <c r="B709" s="10" t="s">
+      <c r="B709" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C709" s="6">
@@ -21133,11 +21092,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="6">
         <v>30</v>
       </c>
-      <c r="B710" s="10" t="s">
+      <c r="B710" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C710" s="6">
@@ -21162,11 +21121,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" s="6">
         <v>40</v>
       </c>
-      <c r="B711" s="10" t="s">
+      <c r="B711" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C711" s="6">
@@ -21191,11 +21150,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="6">
         <v>62</v>
       </c>
-      <c r="B712" s="10" t="s">
+      <c r="B712" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C712" s="6">
@@ -21220,11 +21179,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="6">
         <v>116</v>
       </c>
-      <c r="B713" s="10" t="s">
+      <c r="B713" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C713" s="6">
@@ -21249,11 +21208,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" s="6">
         <v>0</v>
       </c>
-      <c r="B714" s="10" t="s">
+      <c r="B714" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C714" s="6">
@@ -21278,11 +21237,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" s="6">
         <v>2</v>
       </c>
-      <c r="B715" s="10" t="s">
+      <c r="B715" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C715" s="6">
@@ -21307,11 +21266,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" s="6">
         <v>3</v>
       </c>
-      <c r="B716" s="10" t="s">
+      <c r="B716" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C716" s="6">
@@ -21336,11 +21295,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" s="6">
         <v>8</v>
       </c>
-      <c r="B717" s="10" t="s">
+      <c r="B717" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C717" s="6">
@@ -21365,11 +21324,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" s="6">
         <v>30</v>
       </c>
-      <c r="B718" s="10" t="s">
+      <c r="B718" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C718" s="6">
@@ -21394,11 +21353,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="6">
         <v>40</v>
       </c>
-      <c r="B719" s="10" t="s">
+      <c r="B719" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C719" s="6">
@@ -21423,11 +21382,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="6">
         <v>62</v>
       </c>
-      <c r="B720" s="10" t="s">
+      <c r="B720" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C720" s="6">
@@ -21452,11 +21411,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="6">
         <v>116</v>
       </c>
-      <c r="B721" s="10" t="s">
+      <c r="B721" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C721" s="6">
@@ -21481,7 +21440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="6">
         <v>0</v>
       </c>
@@ -21510,7 +21469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="6">
         <v>2</v>
       </c>
@@ -21539,7 +21498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="6">
         <v>3</v>
       </c>
@@ -21568,7 +21527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" s="6">
         <v>8</v>
       </c>
@@ -21597,7 +21556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="6">
         <v>30</v>
       </c>
@@ -21626,7 +21585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" s="6">
         <v>40</v>
       </c>
@@ -21655,7 +21614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="6">
         <v>62</v>
       </c>
@@ -21684,7 +21643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="6">
         <v>116</v>
       </c>
@@ -21713,7 +21672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" s="6">
         <v>0</v>
       </c>
@@ -21742,7 +21701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" s="6">
         <v>2</v>
       </c>
@@ -21771,7 +21730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" s="6">
         <v>3</v>
       </c>
@@ -21800,7 +21759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="6">
         <v>8</v>
       </c>
@@ -21829,7 +21788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="6">
         <v>30</v>
       </c>
@@ -21858,7 +21817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="6">
         <v>40</v>
       </c>
@@ -21887,7 +21846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="6">
         <v>62</v>
       </c>
@@ -21916,7 +21875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" s="6">
         <v>116</v>
       </c>
@@ -21945,7 +21904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" s="6">
         <v>0</v>
       </c>
@@ -21974,7 +21933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" s="6">
         <v>2</v>
       </c>
@@ -22003,7 +21962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="6">
         <v>3</v>
       </c>
@@ -22032,7 +21991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="6">
         <v>8</v>
       </c>
@@ -22061,7 +22020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742" s="6">
         <v>30</v>
       </c>
@@ -22090,7 +22049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="6">
         <v>40</v>
       </c>
@@ -22119,7 +22078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="6">
         <v>62</v>
       </c>
@@ -22148,7 +22107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745" s="6">
         <v>116</v>
       </c>
@@ -22177,7 +22136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="6">
         <v>0</v>
       </c>
@@ -22206,7 +22165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="6">
         <v>2</v>
       </c>
@@ -22235,7 +22194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748" s="6">
         <v>3</v>
       </c>
@@ -22264,7 +22223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749" s="6">
         <v>8</v>
       </c>
@@ -22293,7 +22252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750" s="6">
         <v>30</v>
       </c>
@@ -22322,7 +22281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751" s="6">
         <v>40</v>
       </c>
@@ -22351,7 +22310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752" s="6">
         <v>62</v>
       </c>
@@ -22380,7 +22339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753" s="6">
         <v>116</v>
       </c>
@@ -22409,7 +22368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754" s="6">
         <v>0</v>
       </c>
@@ -22438,7 +22397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755" s="6">
         <v>2</v>
       </c>
@@ -22467,7 +22426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756" s="6">
         <v>3</v>
       </c>
@@ -22496,7 +22455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757" s="6">
         <v>8</v>
       </c>
@@ -22525,7 +22484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758" s="6">
         <v>30</v>
       </c>
@@ -22554,7 +22513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759" s="6">
         <v>40</v>
       </c>
@@ -22583,7 +22542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760" s="6">
         <v>62</v>
       </c>
@@ -22612,7 +22571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761" s="6">
         <v>116</v>
       </c>
@@ -22641,7 +22600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762" s="6">
         <v>0</v>
       </c>
@@ -22670,7 +22629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763" s="6">
         <v>2</v>
       </c>
@@ -22699,7 +22658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764" s="6">
         <v>3</v>
       </c>
@@ -22728,7 +22687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765" s="6">
         <v>8</v>
       </c>
@@ -22757,7 +22716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766" s="6">
         <v>30</v>
       </c>
@@ -22786,7 +22745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767" s="6">
         <v>40</v>
       </c>
@@ -22815,7 +22774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768" s="6">
         <v>62</v>
       </c>
@@ -22844,7 +22803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769" s="6">
         <v>116</v>
       </c>
@@ -22873,7 +22832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770" s="6">
         <v>0</v>
       </c>
@@ -22902,7 +22861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771" s="6">
         <v>2</v>
       </c>
@@ -22931,7 +22890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772" s="6">
         <v>3</v>
       </c>
@@ -22960,7 +22919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773" s="6">
         <v>8</v>
       </c>
@@ -22989,7 +22948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774" s="6">
         <v>30</v>
       </c>
@@ -23018,7 +22977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775" s="6">
         <v>40</v>
       </c>
@@ -23047,7 +23006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776" s="6">
         <v>62</v>
       </c>
@@ -23076,7 +23035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777" s="6">
         <v>116</v>
       </c>
@@ -23105,7 +23064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778" s="6">
         <v>0</v>
       </c>
@@ -23134,7 +23093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779" s="6">
         <v>2</v>
       </c>
@@ -23163,7 +23122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780" s="6">
         <v>3</v>
       </c>
@@ -23192,7 +23151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781" s="6">
         <v>8</v>
       </c>
@@ -23221,7 +23180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782" s="6">
         <v>30</v>
       </c>
@@ -23250,7 +23209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783" s="6">
         <v>40</v>
       </c>
@@ -23279,7 +23238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784" s="6">
         <v>62</v>
       </c>
@@ -23308,7 +23267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785" s="6">
         <v>116</v>
       </c>
@@ -23337,7 +23296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786" s="6">
         <v>0</v>
       </c>
@@ -23366,7 +23325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787" s="6">
         <v>2</v>
       </c>
@@ -23395,7 +23354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788" s="6">
         <v>3</v>
       </c>
@@ -23424,7 +23383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789" s="6">
         <v>8</v>
       </c>
@@ -23453,7 +23412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790" s="6">
         <v>30</v>
       </c>
@@ -23482,7 +23441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791" s="6">
         <v>40</v>
       </c>
@@ -23511,7 +23470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792" s="6">
         <v>62</v>
       </c>
@@ -23540,7 +23499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793" s="6">
         <v>116</v>
       </c>
@@ -23569,7 +23528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794" s="6">
         <v>0</v>
       </c>
@@ -23598,7 +23557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795" s="6">
         <v>2</v>
       </c>
@@ -23627,7 +23586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796" s="6">
         <v>3</v>
       </c>
@@ -23656,7 +23615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797" s="6">
         <v>8</v>
       </c>
@@ -23685,7 +23644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798" s="6">
         <v>30</v>
       </c>
@@ -23714,7 +23673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799" s="6">
         <v>40</v>
       </c>
@@ -23743,7 +23702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800" s="6">
         <v>62</v>
       </c>
@@ -23772,7 +23731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801" s="6">
         <v>116</v>
       </c>
@@ -23801,7 +23760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802" s="6">
         <v>0</v>
       </c>
@@ -23830,7 +23789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803" s="6">
         <v>2</v>
       </c>
@@ -23859,7 +23818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804" s="6">
         <v>3</v>
       </c>
@@ -23888,7 +23847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805" s="6">
         <v>8</v>
       </c>
@@ -23917,7 +23876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806" s="6">
         <v>30</v>
       </c>
@@ -23946,7 +23905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807" s="6">
         <v>40</v>
       </c>
@@ -23975,7 +23934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808" s="6">
         <v>62</v>
       </c>
@@ -24004,7 +23963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809" s="6">
         <v>116</v>
       </c>
@@ -24033,7 +23992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810" s="6">
         <v>0</v>
       </c>
@@ -24062,7 +24021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811" s="6">
         <v>2</v>
       </c>
@@ -24091,7 +24050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812" s="6">
         <v>3</v>
       </c>
@@ -24120,7 +24079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813" s="6">
         <v>8</v>
       </c>
@@ -24149,7 +24108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814" s="6">
         <v>30</v>
       </c>
@@ -24178,7 +24137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815" s="6">
         <v>40</v>
       </c>
@@ -24207,7 +24166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816" s="6">
         <v>62</v>
       </c>
@@ -24236,7 +24195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817" s="6">
         <v>116</v>
       </c>
@@ -24265,7 +24224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818" s="6">
         <v>0</v>
       </c>
@@ -24294,7 +24253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819" s="6">
         <v>2</v>
       </c>
@@ -24323,7 +24282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820" s="6">
         <v>3</v>
       </c>
@@ -24352,7 +24311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821" s="6">
         <v>8</v>
       </c>
@@ -24381,7 +24340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822" s="6">
         <v>30</v>
       </c>
@@ -24410,7 +24369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823" s="6">
         <v>40</v>
       </c>
@@ -24439,7 +24398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824" s="6">
         <v>62</v>
       </c>
@@ -24468,7 +24427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825" s="6">
         <v>116</v>
       </c>
@@ -24497,7 +24456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826" s="6">
         <v>0</v>
       </c>
@@ -24526,7 +24485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827" s="6">
         <v>2</v>
       </c>
@@ -24555,7 +24514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828" s="6">
         <v>3</v>
       </c>
@@ -24584,7 +24543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829" s="6">
         <v>8</v>
       </c>
@@ -24613,7 +24572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830" s="6">
         <v>30</v>
       </c>
@@ -24642,7 +24601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831" s="6">
         <v>40</v>
       </c>
@@ -24671,7 +24630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832" s="6">
         <v>62</v>
       </c>
@@ -24700,7 +24659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833" s="6">
         <v>116</v>
       </c>
@@ -24729,7 +24688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834" s="6">
         <v>0</v>
       </c>
@@ -24758,7 +24717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835" s="6">
         <v>2</v>
       </c>
@@ -24787,7 +24746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836" s="6">
         <v>3</v>
       </c>
@@ -24816,7 +24775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837" s="6">
         <v>8</v>
       </c>
@@ -24845,7 +24804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838" s="6">
         <v>30</v>
       </c>
@@ -24874,7 +24833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839" s="6">
         <v>40</v>
       </c>
@@ -24903,7 +24862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840" s="6">
         <v>62</v>
       </c>
@@ -24932,7 +24891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841" s="6">
         <v>116</v>
       </c>
@@ -24961,7 +24920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842" s="6">
         <v>0</v>
       </c>
@@ -24990,7 +24949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843" s="6">
         <v>2</v>
       </c>
@@ -25019,7 +24978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844" s="6">
         <v>3</v>
       </c>
@@ -25048,7 +25007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845" s="6">
         <v>8</v>
       </c>
@@ -25077,7 +25036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846" s="6">
         <v>30</v>
       </c>
@@ -25106,7 +25065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847" s="6">
         <v>40</v>
       </c>
@@ -25135,7 +25094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848" s="6">
         <v>62</v>
       </c>
@@ -25164,7 +25123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849" s="6">
         <v>116</v>
       </c>
@@ -25193,7 +25152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850" s="6">
         <v>0</v>
       </c>
@@ -25222,7 +25181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851" s="6">
         <v>2</v>
       </c>
@@ -25251,7 +25210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852" s="6">
         <v>3</v>
       </c>
@@ -25280,7 +25239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853" s="6">
         <v>8</v>
       </c>
@@ -25309,7 +25268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854" s="6">
         <v>30</v>
       </c>
@@ -25338,7 +25297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855" s="6">
         <v>40</v>
       </c>
@@ -25367,7 +25326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856" s="6">
         <v>62</v>
       </c>
@@ -25396,7 +25355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857" s="6">
         <v>116</v>
       </c>
@@ -25425,7 +25384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858" s="6">
         <v>0</v>
       </c>
@@ -25454,7 +25413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859" s="6">
         <v>2</v>
       </c>
@@ -25483,7 +25442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860" s="6">
         <v>3</v>
       </c>
@@ -25512,7 +25471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861" s="6">
         <v>8</v>
       </c>
@@ -25541,7 +25500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862" s="6">
         <v>30</v>
       </c>
@@ -25570,7 +25529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863" s="6">
         <v>40</v>
       </c>
@@ -25599,7 +25558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864" s="6">
         <v>62</v>
       </c>
@@ -25628,7 +25587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865" s="6">
         <v>116</v>
       </c>
@@ -25657,7 +25616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A866" s="6">
         <v>0</v>
       </c>
@@ -25686,7 +25645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A867" s="6">
         <v>2</v>
       </c>
@@ -25715,7 +25674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868" s="6">
         <v>3</v>
       </c>
@@ -25744,7 +25703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869" s="6">
         <v>8</v>
       </c>
@@ -25773,7 +25732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A870" s="6">
         <v>30</v>
       </c>
@@ -25802,7 +25761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871" s="6">
         <v>40</v>
       </c>
@@ -25831,7 +25790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872" s="6">
         <v>62</v>
       </c>
@@ -25860,7 +25819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873" s="6">
         <v>116</v>
       </c>
@@ -25889,7 +25848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874" s="6">
         <v>0</v>
       </c>
@@ -25918,7 +25877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875" s="6">
         <v>2</v>
       </c>
@@ -25947,7 +25906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A876" s="6">
         <v>3</v>
       </c>
@@ -25976,7 +25935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877" s="6">
         <v>8</v>
       </c>
@@ -26005,7 +25964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878" s="6">
         <v>30</v>
       </c>
@@ -26034,7 +25993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879" s="6">
         <v>40</v>
       </c>
@@ -26063,7 +26022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880" s="6">
         <v>62</v>
       </c>
@@ -26092,7 +26051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881" s="6">
         <v>116</v>
       </c>
@@ -26121,7 +26080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882" s="6">
         <v>0</v>
       </c>
@@ -26150,7 +26109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883" s="6">
         <v>2</v>
       </c>
@@ -26179,7 +26138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A884" s="6">
         <v>3</v>
       </c>
@@ -26208,7 +26167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A885" s="6">
         <v>8</v>
       </c>
@@ -26237,7 +26196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A886" s="6">
         <v>30</v>
       </c>
@@ -26266,7 +26225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A887" s="6">
         <v>40</v>
       </c>
@@ -26295,7 +26254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A888" s="6">
         <v>62</v>
       </c>
@@ -26324,7 +26283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A889" s="6">
         <v>116</v>
       </c>
@@ -26353,7 +26312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890" s="6">
         <v>0</v>
       </c>
@@ -26382,7 +26341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891" s="6">
         <v>2</v>
       </c>
@@ -26411,7 +26370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892" s="6">
         <v>3</v>
       </c>
@@ -26440,7 +26399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A893" s="6">
         <v>8</v>
       </c>
@@ -26469,7 +26428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A894" s="6">
         <v>30</v>
       </c>
@@ -26498,7 +26457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A895" s="6">
         <v>40</v>
       </c>
@@ -26527,7 +26486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A896" s="6">
         <v>62</v>
       </c>
@@ -26556,7 +26515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A897" s="6">
         <v>116</v>
       </c>
@@ -26585,7 +26544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A898" s="6">
         <v>0</v>
       </c>
@@ -26614,7 +26573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A899" s="6">
         <v>2</v>
       </c>
@@ -26643,7 +26602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A900" s="6">
         <v>3</v>
       </c>
@@ -26672,7 +26631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A901" s="6">
         <v>8</v>
       </c>
@@ -26701,7 +26660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A902" s="6">
         <v>30</v>
       </c>
@@ -26730,7 +26689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A903" s="6">
         <v>40</v>
       </c>
@@ -26759,7 +26718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A904" s="6">
         <v>62</v>
       </c>
@@ -26788,7 +26747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A905" s="6">
         <v>116</v>
       </c>
@@ -26817,7 +26776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A906" s="6">
         <v>0</v>
       </c>
@@ -26846,7 +26805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A907" s="6">
         <v>2</v>
       </c>
@@ -26875,7 +26834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A908" s="6">
         <v>3</v>
       </c>
@@ -26904,7 +26863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A909" s="6">
         <v>8</v>
       </c>
@@ -26933,7 +26892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A910" s="6">
         <v>30</v>
       </c>
@@ -26962,7 +26921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A911" s="6">
         <v>40</v>
       </c>
@@ -26991,7 +26950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A912" s="6">
         <v>62</v>
       </c>
@@ -27020,7 +26979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A913" s="6">
         <v>116</v>
       </c>
@@ -27049,12 +27008,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A914" s="6">
         <v>0</v>
       </c>
       <c r="B914" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C914" s="6">
         <v>1</v>
@@ -27078,12 +27037,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A915" s="6">
         <v>2</v>
       </c>
       <c r="B915" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C915" s="6">
         <v>1</v>
@@ -27107,12 +27066,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A916" s="6">
         <v>3</v>
       </c>
       <c r="B916" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C916" s="6">
         <v>1</v>
@@ -27136,12 +27095,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A917" s="6">
         <v>8</v>
       </c>
       <c r="B917" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C917" s="6">
         <v>1</v>
@@ -27165,12 +27124,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A918" s="6">
         <v>30</v>
       </c>
       <c r="B918" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C918" s="6">
         <v>1</v>
@@ -27194,12 +27153,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A919" s="6">
         <v>40</v>
       </c>
       <c r="B919" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C919" s="6">
         <v>1</v>
@@ -27223,12 +27182,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A920" s="6">
         <v>62</v>
       </c>
       <c r="B920" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C920" s="6">
         <v>1</v>
@@ -27252,12 +27211,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A921" s="6">
         <v>116</v>
       </c>
       <c r="B921" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C921" s="6">
         <v>1</v>
@@ -27281,12 +27240,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A922" s="6">
         <v>0</v>
       </c>
       <c r="B922" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C922" s="6">
         <v>2</v>
@@ -27310,12 +27269,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A923" s="6">
         <v>2</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C923" s="6">
         <v>2</v>
@@ -27339,12 +27298,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A924" s="6">
         <v>3</v>
       </c>
       <c r="B924" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C924" s="6">
         <v>2</v>
@@ -27368,12 +27327,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A925" s="6">
         <v>8</v>
       </c>
       <c r="B925" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C925" s="6">
         <v>2</v>
@@ -27397,12 +27356,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A926" s="6">
         <v>30</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C926" s="6">
         <v>2</v>
@@ -27426,12 +27385,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A927" s="6">
         <v>40</v>
       </c>
       <c r="B927" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C927" s="6">
         <v>2</v>
@@ -27455,12 +27414,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A928" s="6">
         <v>62</v>
       </c>
       <c r="B928" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C928" s="6">
         <v>2</v>
@@ -27484,12 +27443,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A929" s="6">
         <v>116</v>
       </c>
       <c r="B929" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C929" s="6">
         <v>2</v>
@@ -27513,12 +27472,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A930" s="6">
         <v>0</v>
       </c>
       <c r="B930" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C930" s="6">
         <v>3</v>
@@ -27542,12 +27501,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A931" s="6">
         <v>2</v>
       </c>
       <c r="B931" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C931" s="6">
         <v>3</v>
@@ -27571,12 +27530,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A932" s="6">
         <v>3</v>
       </c>
       <c r="B932" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C932" s="6">
         <v>3</v>
@@ -27600,12 +27559,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A933" s="6">
         <v>8</v>
       </c>
       <c r="B933" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C933" s="6">
         <v>3</v>
@@ -27629,12 +27588,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A934" s="6">
         <v>30</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C934" s="6">
         <v>3</v>
@@ -27658,12 +27617,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A935" s="6">
         <v>40</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C935" s="6">
         <v>3</v>
@@ -27687,12 +27646,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A936" s="6">
         <v>62</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C936" s="6">
         <v>3</v>
@@ -27716,12 +27675,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A937" s="6">
         <v>116</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C937" s="6">
         <v>3</v>
@@ -27745,11 +27704,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A938" s="6">
         <v>0</v>
       </c>
-      <c r="B938" s="10" t="s">
+      <c r="B938" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C938" s="6">
@@ -27774,11 +27733,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A939" s="6">
         <v>2</v>
       </c>
-      <c r="B939" s="10" t="s">
+      <c r="B939" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C939" s="6">
@@ -27803,11 +27762,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A940" s="6">
         <v>3</v>
       </c>
-      <c r="B940" s="10" t="s">
+      <c r="B940" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C940" s="6">
@@ -27832,11 +27791,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A941" s="6">
         <v>8</v>
       </c>
-      <c r="B941" s="10" t="s">
+      <c r="B941" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C941" s="6">
@@ -27861,11 +27820,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A942" s="6">
         <v>30</v>
       </c>
-      <c r="B942" s="10" t="s">
+      <c r="B942" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C942" s="6">
@@ -27890,11 +27849,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A943" s="6">
         <v>40</v>
       </c>
-      <c r="B943" s="10" t="s">
+      <c r="B943" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C943" s="6">
@@ -27919,11 +27878,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A944" s="6">
         <v>62</v>
       </c>
-      <c r="B944" s="10" t="s">
+      <c r="B944" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C944" s="6">
@@ -27948,11 +27907,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A945" s="6">
         <v>116</v>
       </c>
-      <c r="B945" s="10" t="s">
+      <c r="B945" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C945" s="6">
@@ -27977,11 +27936,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A946" s="6">
         <v>0</v>
       </c>
-      <c r="B946" s="10" t="s">
+      <c r="B946" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C946" s="6">
@@ -28006,11 +27965,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A947" s="6">
         <v>2</v>
       </c>
-      <c r="B947" s="10" t="s">
+      <c r="B947" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C947" s="6">
@@ -28035,11 +27994,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A948" s="6">
         <v>3</v>
       </c>
-      <c r="B948" s="10" t="s">
+      <c r="B948" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C948" s="6">
@@ -28064,11 +28023,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A949" s="6">
         <v>8</v>
       </c>
-      <c r="B949" s="10" t="s">
+      <c r="B949" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C949" s="6">
@@ -28093,11 +28052,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A950" s="6">
         <v>30</v>
       </c>
-      <c r="B950" s="10" t="s">
+      <c r="B950" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C950" s="6">
@@ -28122,11 +28081,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A951" s="6">
         <v>40</v>
       </c>
-      <c r="B951" s="10" t="s">
+      <c r="B951" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C951" s="6">
@@ -28151,11 +28110,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A952" s="6">
         <v>62</v>
       </c>
-      <c r="B952" s="10" t="s">
+      <c r="B952" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C952" s="6">
@@ -28180,11 +28139,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A953" s="6">
         <v>116</v>
       </c>
-      <c r="B953" s="10" t="s">
+      <c r="B953" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C953" s="6">
@@ -28209,11 +28168,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A954" s="6">
         <v>0</v>
       </c>
-      <c r="B954" s="10" t="s">
+      <c r="B954" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C954" s="6">
@@ -28238,11 +28197,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A955" s="6">
         <v>2</v>
       </c>
-      <c r="B955" s="10" t="s">
+      <c r="B955" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C955" s="6">
@@ -28267,11 +28226,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A956" s="6">
         <v>3</v>
       </c>
-      <c r="B956" s="10" t="s">
+      <c r="B956" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C956" s="6">
@@ -28296,11 +28255,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A957" s="6">
         <v>8</v>
       </c>
-      <c r="B957" s="10" t="s">
+      <c r="B957" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C957" s="6">
@@ -28325,11 +28284,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A958" s="6">
         <v>30</v>
       </c>
-      <c r="B958" s="10" t="s">
+      <c r="B958" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C958" s="6">
@@ -28354,11 +28313,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A959" s="6">
         <v>40</v>
       </c>
-      <c r="B959" s="10" t="s">
+      <c r="B959" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C959" s="6">
@@ -28383,11 +28342,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A960" s="6">
         <v>62</v>
       </c>
-      <c r="B960" s="10" t="s">
+      <c r="B960" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C960" s="6">
@@ -28412,11 +28371,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A961" s="6">
         <v>116</v>
       </c>
-      <c r="B961" s="10" t="s">
+      <c r="B961" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C961" s="6">
@@ -28442,6 +28401,28 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I961" xr:uid="{E394B277-011E-4AC1-8793-3222B2AACF90}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Prionitis linearis"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="2016"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Fall"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Point Loma"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
